--- a/消息队列/消息队列.xlsx
+++ b/消息队列/消息队列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8010" activeTab="6"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="各个MQ优缺点" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
   <si>
     <t>为什么使用消息队列,消息队列有什么优点？</t>
   </si>
@@ -166,6 +166,12 @@
     <t>Kafka 的高可用性</t>
   </si>
   <si>
+    <t>Kafka 一个最基本的架构认识：由多个 broker 组成，每个 broker 是一个节点；</t>
+  </si>
+  <si>
+    <t>你创建一个 topic，这个 topic 可以划分为多个 partition，每个 partition 可以存在于不同的 broker 上，每个 partition 就放一部分数据。</t>
+  </si>
+  <si>
     <t>Kafka 0.8 以后，提供了 HA 机制，就是 replica（复制品） 副本机制</t>
   </si>
   <si>
@@ -194,6 +200,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>写数据的时候，生产者就写</t>
     </r>
     <r>
@@ -306,10 +318,56 @@
     <t>挑一个 Kafka 来举个例子</t>
   </si>
   <si>
-    <t>Kafka 实际上有个 offset 的概念，就是每个消息写进去，都有一个 offset，代表消息的序号，</t>
-  </si>
-  <si>
-    <t>然后 consumer 消费了数据之后，每隔一段时间（定时定期），会把自己消费过的消息的 offset 提交一下，表示“我已经消费过了，</t>
+    <r>
+      <t xml:space="preserve">Kafka 实际上有个 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>offset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的概念，就是每个消息写进去，都有一个 offset，代表消息的序号，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>然后 consumer 消费了数据之后，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每隔一段时间（定时定期），会把自己消费过的消息的 offset 提交一下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，表示“我已经消费过了，</t>
+    </r>
   </si>
   <si>
     <t>下次我要是重启啥的，你就让我继续从上次消费到的 offset 来继续消费吧”</t>
@@ -465,11 +523,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,10 +570,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,7 +610,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,97 +693,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -676,49 +727,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,133 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,6 +932,80 @@
       </top>
       <bottom style="medium">
         <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,235 +1033,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1227,13 +1281,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1251,7 +1305,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="1285875"/>
+          <a:off x="714375" y="1628775"/>
           <a:ext cx="6038850" cy="5334000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1604,8 +1658,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1635,21 +1689,21 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="3"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
@@ -1667,117 +1721,117 @@
       </c>
     </row>
     <row r="14" ht="35.25" spans="1:5">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="81" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" ht="69.75" spans="1:5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" ht="95.25" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" ht="57.75" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" ht="43.5" spans="1:5">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" ht="106.5" spans="1:5">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1792,22 +1846,22 @@
       </c>
     </row>
     <row r="24" ht="14.25" spans="2:2">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="2:2">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="2:2">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="3:3">
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1826,26 +1880,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="C3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1869,13 +1925,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1884,19 +1940,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" ht="17.25" spans="2:2">
-      <c r="B44" s="2" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="46" ht="17.25" spans="2:2">
+      <c r="B46" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1913,59 +1979,59 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>64</v>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>65</v>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1980,15 +2046,15 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -1996,62 +2062,62 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2065,68 +2131,68 @@
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2142,74 +2208,74 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2289,7 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -2231,42 +2297,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/消息队列/消息队列.xlsx
+++ b/消息队列/消息队列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="3"/>
+    <workbookView windowWidth="19815" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="各个MQ优缺点" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,127 @@
     <t>消息队列有什么缺点</t>
   </si>
   <si>
-    <t>系统可用性降低：系统引入的外部依赖越多，越容易挂掉。本来你就是 A 系统调用 BCD 三个系统的接口就好了，</t>
+    <r>
+      <t>系统</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可用性降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：系统引入的外部依赖越多，越容易挂掉。本来你就是 A 系统调用 BCD 三个系统的接口就好了，</t>
+    </r>
   </si>
   <si>
     <t>人 ABCD 四个系统好好的，没啥问题，你偏加个 MQ 进来，万一 MQ 挂了咋整，MQ 一挂，整套系统崩溃的，你不就完了？</t>
   </si>
   <si>
-    <t>系统复杂度提高，硬生生加个 MQ 进来，你怎么保证消息没有重复消费？怎么处理消息丢失的情况？怎么保证消息传递的顺序性？</t>
-  </si>
-  <si>
-    <t>一致性问题，A 系统处理完了直接返回成功了，人都以为你这个请求就成功了；但是问题是，要是 BCD 三个系统那里，BD 两个系统写库成功了，</t>
+    <r>
+      <t>系统复</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>杂度提高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，硬生生加个 MQ 进来，你怎么保证消息没有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重复消费？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怎么处理</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消息丢失的情况？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怎么保证消息传递的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺序性？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>一致性问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，A 系统处理完了直接返回成功了，人都以为你这个请求就成功了；但是问题是，要是 BCD 三个系统那里，BD 两个系统写库成功了，</t>
+    </r>
   </si>
   <si>
     <t>结果 C 系统写库失败了，咋整？你这数据就不一致了。</t>
@@ -172,16 +283,130 @@
     <t>你创建一个 topic，这个 topic 可以划分为多个 partition，每个 partition 可以存在于不同的 broker 上，每个 partition 就放一部分数据。</t>
   </si>
   <si>
-    <t>Kafka 0.8 以后，提供了 HA 机制，就是 replica（复制品） 副本机制</t>
-  </si>
-  <si>
-    <t>每个 partition 的数据都会同步到其它机器上，形成自己的多个 replica 副本。</t>
-  </si>
-  <si>
-    <t>所有 replica 会选举一个 leader 出来，那么生产和消费都跟这个 leader 打交道，然后其他 replica 就是 follower</t>
-  </si>
-  <si>
-    <t>写的时候，leader 会负责把数据同步到所有 follower 上去，读的时候就直接读 leader 上的数据即可。</t>
+    <r>
+      <t xml:space="preserve">Kafka 0.8 以后，提供了 HA 机制，就是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>replica（复制品） 副本机制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每个 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>partition 的数据都会同步到其它机器上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，形成自己的多个 replica 副本。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">所有 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>replica 会选举一个 leader 出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那么</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生产和消费都跟这个 leader 打交道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后其他</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replica 就是 follower</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>写的时候，leader 会负责把数据同步到所有 follower 上去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读的时候就直接读 leader 上的数据即可。</t>
+    </r>
   </si>
   <si>
     <t>设计成只能读写 leader的原因很简单，要是你可以随意读写每个 follower，那么就要 care 数据一致性的问题，系统复杂度太高，很容易出问题。</t>
@@ -190,13 +415,83 @@
     <t>Kafka 会均匀地将一个 partition 的所有 replica 分布在不同的机器上，这样才可以提高容错性。</t>
   </si>
   <si>
-    <t>这么搞，就有所谓的高可用性了，因为如果某个 broker 宕机了，没事。</t>
-  </si>
-  <si>
-    <t>那个 broker上面的 partition 在其他机器上都有副本的。如果这个宕机的 broker 上面有某个 partition 的 leader，</t>
-  </si>
-  <si>
-    <t>那么此时会从 follower 中重新选举一个新的 leader 出来，大家继续读写那个新的 leader 即可。这就有所谓的高可用性了。</t>
+    <r>
+      <t>这么搞，就有所谓的高可用性了，因为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果某个 broker 宕机了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，没事。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>那个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> broker上面的 partition 在其他机器上都有副本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果这个宕机的 broker 上面有某个 partition 的 leader，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>那么此时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会从 follower 中重新选举一个新的 leader 出来，大家继续读写那个新的 leader 即可。这就有所谓的高可用性了。</t>
+    </r>
   </si>
   <si>
     <r>
@@ -319,6 +614,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Kafka 实际上有个 </t>
     </r>
     <r>
@@ -345,6 +647,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>然后 consumer 消费了数据之后，</t>
     </r>
     <r>
@@ -388,7 +697,72 @@
     <t>消费端弄丢了数据:</t>
   </si>
   <si>
-    <t>Kafka 会自动提交 offset，那么只要关闭自动提交 offset，在处理完之后自己手动提交 offset，就可以保证数据不会丢。</t>
+    <r>
+      <t xml:space="preserve">Kafka </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会自动提交 offset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那么只要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关闭自动提交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> offset，在处理</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完之后自己手动提交 offset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就可以保证数据不会丢。</t>
+    </r>
   </si>
   <si>
     <t>但是此时确实还是可能会有重复消费，比如你刚处理完，还没提交 offset，结果自己挂了，此时肯定会重复消费一次，自己保证幂等性就好了。</t>
@@ -397,28 +771,272 @@
     <t>Kafka 弄丢了数据:</t>
   </si>
   <si>
-    <t>这块比较常见的一个场景，就是 Kafka 某个 broker 宕机，然后重新选举 partition 的 leader。</t>
-  </si>
-  <si>
-    <t>要是此时其他的 follower 刚好还有些数据没有同步，结果此时 leader 挂了，然后选举某个 follower 成 leader 之后，不就少了一些数据？</t>
+    <r>
+      <t>这块比较常见的一个场景，就是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kafka 某个 broker 宕机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后重新</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选举 partition 的 leader。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>要是此时其他的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> follower 刚好还有些数据没有同步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，结果此时 leader 挂了，然后选</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>举某个 follower 成 leader 之后，不就少了一些数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
   </si>
   <si>
     <t>解决方法：</t>
   </si>
   <si>
-    <t>给 topic 设置 replication.factor 参数：这个值必须大于 1，要求每个 partition 必须有至少 2 个副本</t>
-  </si>
-  <si>
-    <t>在 Kafka 服务端设置 min.insync.replicas 参数：这个值必须大于 1，这个是要求一个 leader 至少感知到有至少一个 follower 还跟自己保持联系，</t>
+    <r>
+      <t xml:space="preserve">给 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 设置 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replication.factor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参数：这个值必</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>须大于 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，要求每个 partition 必须有至少 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 个副本</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在 Kafka 服务端设置 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min.insync.replicas 参数：这个值必须大于 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，这个是要求一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leader 至少感知到有至少一个 follower 还跟自己保持联系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
   </si>
   <si>
     <t>没掉队，这样才能确保 leader 挂了还有一个 follower 吧。</t>
   </si>
   <si>
-    <t>在 producer 端设置 acks=all：这个是要求每条数据，必须是写入所有 replica 之后，才能认为是写成功了。</t>
-  </si>
-  <si>
-    <t>在 producer 端设置 retries=MAX（很大很大很大的一个值，无限次重试的意思）</t>
+    <r>
+      <t xml:space="preserve">在 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>producer 端设置 acks=all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：这个是要求每条数据，必须是写入所有 replica 之后，才能认为是写成功了。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>producer 端设置 retries=MAX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（很大很大很大的一个值，无限次重试的意思）</t>
+    </r>
   </si>
   <si>
     <t>如何保证消息的顺序性？</t>
@@ -499,19 +1117,132 @@
     <t>首先这个 mq 得支持可伸缩性吧，就是需要的时候快速扩容，就可以增加吞吐量和容量，那怎么搞？设计个分布式的系统呗，</t>
   </si>
   <si>
-    <t>参照一下 kafka 的设计理念，broker -&gt; topic -&gt; partition，每个 partition 放一个机器，就存一部分数据。</t>
-  </si>
-  <si>
-    <t>如果现在资源不够了，简单啊，给 topic 增加 partition，然后做数据迁移，增加机器，不就可以存放更多数据，提供更高的吞吐量了？</t>
+    <r>
+      <t>参照一下 kafka 的设计理念，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>broker -&gt; topic -&gt; partition，每个 partition 放一个机器，就存一部分数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果现在资源不够了，简单啊，给 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>topic 增加 partition，然后做数据迁移，增加机器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不就可以存放更多数据，提供更高的吞吐量了？</t>
+    </r>
   </si>
   <si>
     <t>其次你得考虑一下这个 mq 的数据要不要落地磁盘吧？那肯定要了，落磁盘才能保证别进程挂了数据就丢了。</t>
   </si>
   <si>
-    <t>那落磁盘的时候怎么落啊？顺序写，这样就没有磁盘随机读写的寻址开销，磁盘顺序读写的性能是很高的，这就是 kafka 的思路。</t>
-  </si>
-  <si>
-    <t>其次你考虑一下你的 mq 的可用性啊？这个事儿，具体参考之前可用性那个环节讲解的 kafka 的高可用保障机制。</t>
+    <r>
+      <t>那落磁盘的时候怎么落啊？</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺序写，这样就没有磁盘随机读写的寻址开销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>磁盘顺序读写的性能是很高的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这就是 kafka 的思路。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>其次你考虑一下你的 mq 的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可用性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>啊？这个事儿，具体参考之前可用性那个环节讲解的 kafka 的高可用保障机制。</t>
+    </r>
   </si>
   <si>
     <t>多副本 -&gt; leader &amp; follower -&gt; broker 挂了重新选举 leader 即可对外服务。</t>
@@ -522,9 +1253,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -563,37 +1294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -610,45 +1310,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,8 +1347,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,6 +1385,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -693,8 +1400,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,187 +1458,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,6 +1667,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -951,11 +1691,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,35 +1723,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,6 +1755,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1041,162 +1772,165 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1659,7 +2393,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1669,7 +2403,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1679,12 +2413,12 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1698,7 +2432,7 @@
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1706,7 +2440,7 @@
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1716,127 +2450,127 @@
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="35.25" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="81" spans="1:5">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" ht="69.75" spans="1:5">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" ht="95.25" spans="1:5">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" ht="57.75" spans="1:5">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" ht="43.5" spans="1:5">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" ht="106.5" spans="1:5">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1846,22 +2580,22 @@
       </c>
     </row>
     <row r="24" ht="14.25" spans="2:2">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="2:2">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="2:2">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="3:3">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1882,46 +2616,46 @@
   <sheetPr/>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:M44"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="C3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1936,17 +2670,17 @@
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1985,7 +2719,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2005,12 +2739,12 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2046,8 +2780,8 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2061,12 +2795,12 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2076,17 +2810,17 @@
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2096,12 +2830,12 @@
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2111,12 +2845,12 @@
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2138,7 +2872,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2208,7 +2942,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B8" sqref="B8:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2289,8 +3023,8 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2306,12 +3040,12 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2321,17 +3055,17 @@
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>116</v>
       </c>
     </row>

--- a/消息队列/消息队列.xlsx
+++ b/消息队列/消息队列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="各个MQ优缺点" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>系统</t>
     </r>
     <r>
@@ -61,6 +68,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>系统复</t>
     </r>
     <r>
@@ -140,6 +154,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>一致性问题</t>
     </r>
     <r>
@@ -284,6 +306,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Kafka 0.8 以后，提供了 HA 机制，就是 </t>
     </r>
     <r>
@@ -300,6 +329,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">每个 </t>
     </r>
     <r>
@@ -326,6 +362,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">所有 </t>
     </r>
     <r>
@@ -384,6 +427,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>写的时候，leader 会负责把数据同步到所有 follower 上去</t>
     </r>
     <r>
@@ -416,6 +467,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这么搞，就有所谓的高可用性了，因为</t>
     </r>
     <r>
@@ -442,6 +500,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>那个</t>
     </r>
     <r>
@@ -479,6 +544,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>那么此时</t>
     </r>
     <r>
@@ -698,6 +770,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Kafka </t>
     </r>
     <r>
@@ -772,6 +851,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这块比较常见的一个场景，就是</t>
     </r>
     <r>
@@ -809,6 +895,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>要是此时其他的</t>
     </r>
     <r>
@@ -859,6 +952,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">给 </t>
     </r>
     <r>
@@ -938,6 +1038,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">在 Kafka 服务端设置 </t>
     </r>
     <r>
@@ -988,6 +1095,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">在 </t>
     </r>
     <r>
@@ -1014,6 +1128,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">在 </t>
     </r>
     <r>
@@ -1118,6 +1239,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>参照一下 kafka 的设计理念，</t>
     </r>
     <r>
@@ -1144,6 +1272,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">如果现在资源不够了，简单啊，给 </t>
     </r>
     <r>
@@ -1173,6 +1308,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>那落磁盘的时候怎么落啊？</t>
     </r>
     <r>
@@ -1220,6 +1362,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>其次你考虑一下你的 mq 的</t>
     </r>
     <r>
@@ -1253,9 +1402,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1287,8 +1436,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1297,6 +1485,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1317,46 +1512,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1379,6 +1536,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1386,9 +1551,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1400,32 +1573,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,79 +1607,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,43 +1769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,54 +1788,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1667,11 +1816,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1706,6 +1870,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1723,41 +1907,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1772,10 +1921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1784,133 +1933,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2393,7 +2542,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2616,8 +2765,8 @@
   <sheetPr/>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2713,7 +2862,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2865,7 +3014,7 @@
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -3023,7 +3172,7 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/消息队列/消息队列.xlsx
+++ b/消息队列/消息队列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="729" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="各个MQ优缺点" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="不被重复消费" sheetId="3" r:id="rId3"/>
     <sheet name="消息丢失" sheetId="4" r:id="rId4"/>
     <sheet name="顺序性" sheetId="5" r:id="rId5"/>
-    <sheet name="延时失效" sheetId="6" r:id="rId6"/>
+    <sheet name="积压，延时失效" sheetId="6" r:id="rId6"/>
     <sheet name="自己设计" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -299,10 +299,98 @@
     <t>Kafka 的高可用性</t>
   </si>
   <si>
-    <t>Kafka 一个最基本的架构认识：由多个 broker 组成，每个 broker 是一个节点；</t>
-  </si>
-  <si>
-    <t>你创建一个 topic，这个 topic 可以划分为多个 partition，每个 partition 可以存在于不同的 broker 上，每个 partition 就放一部分数据。</t>
+    <r>
+      <t xml:space="preserve">Kafka 一个最基本的架构认识：由多个 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>broker 组成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每个 broker 是一个节点；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>你创建一个 topic，这个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> topic 可以划分为多个 partition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每个 partition 可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在于不同的 broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 上，每个 partition 就</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放一部分数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1190,7 +1278,19 @@
     <t>那么 1 秒钟只能处理几十条消息，这吞吐量太低了。而多个线程并发跑的话，顺序可能就乱掉了。</t>
   </si>
   <si>
-    <t>写 N 个内存 queue，具有相同 key 的数据都到同一个内存 queue；然后对于 N 个线程，每个线程分别消费一个内存 queue 即可，这样就能保证顺序性。</t>
+    <r>
+      <t>写 N 个内存 queue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，具有相同 key 的数据都到同一个内存 queue；然后对于 N 个线程，每个线程分别消费一个内存 queue 即可，这样就能保证顺序性。</t>
+    </r>
   </si>
   <si>
     <t>大量消息在 mq 里积压了几个小时了还没解决</t>
@@ -1402,8 +1502,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1436,11 +1536,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1452,46 +1559,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1505,22 +1575,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1534,19 +1589,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1565,11 +1627,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1579,6 +1672,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -1607,7 +1707,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,19 +1737,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,37 +1845,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,109 +1881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,6 +1916,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1833,9 +1942,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1851,41 +1962,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1913,6 +1989,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1921,10 +2021,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1933,133 +2033,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2542,7 +2642,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2765,8 +2865,8 @@
   <sheetPr/>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2778,13 +2878,13 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2"/>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2862,7 +2962,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B6" sqref="B6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2930,7 +3030,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C13" sqref="C13:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3014,8 +3114,8 @@
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3074,7 +3174,7 @@
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3091,7 +3191,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3172,8 +3272,8 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/消息队列/消息队列.xlsx
+++ b/消息队列/消息队列.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="729" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="729" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="各个MQ优缺点" sheetId="1" r:id="rId1"/>
     <sheet name="高可用" sheetId="2" r:id="rId2"/>
-    <sheet name="不被重复消费" sheetId="3" r:id="rId3"/>
+    <sheet name="不被重复消费，幂等性" sheetId="3" r:id="rId3"/>
     <sheet name="消息丢失" sheetId="4" r:id="rId4"/>
     <sheet name="顺序性" sheetId="5" r:id="rId5"/>
     <sheet name="积压，延时失效" sheetId="6" r:id="rId6"/>
@@ -300,6 +300,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Kafka 一个最基本的架构认识：由多个 </t>
     </r>
     <r>
@@ -326,6 +333,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你创建一个 topic，这个</t>
     </r>
     <r>
@@ -1279,6 +1293,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>写 N 个内存 queue</t>
     </r>
     <r>
@@ -1502,10 +1524,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1536,39 +1558,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1581,22 +1580,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1604,32 +1587,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1658,6 +1617,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1673,12 +1655,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -1707,7 +1729,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,37 +1825,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,43 +1861,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,85 +1909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,10 +1938,75 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1942,71 +2029,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2021,10 +2043,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2033,37 +2055,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2072,94 +2091,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2865,7 +2887,7 @@
   <sheetPr/>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B47" sqref="B47:N47"/>
     </sheetView>
   </sheetViews>
@@ -2961,8 +2983,8 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3272,7 +3294,7 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
